--- a/BackTest/2020-01-16 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-16 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1236145.9016</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1608558.855</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5.514</v>
@@ -521,7 +521,7 @@
         <v>1599617.105</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5.53</v>
@@ -562,7 +562,7 @@
         <v>1593617.105</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>5.52</v>
@@ -603,7 +603,7 @@
         <v>1727894.336822873</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5.421</v>
@@ -644,7 +644,7 @@
         <v>1712894.336822873</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>5.596</v>
@@ -685,9 +685,11 @@
         <v>1712994.336822873</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.46</v>
+      </c>
       <c r="J8" t="n">
         <v>5.514</v>
       </c>
@@ -724,7 +726,7 @@
         <v>1712708.980322873</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>5.49</v>
@@ -765,7 +767,7 @@
         <v>1707379.790322874</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>5.47</v>
@@ -806,7 +808,7 @@
         <v>1698049.290322874</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>5.428</v>
@@ -847,7 +849,7 @@
         <v>1698149.290322874</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>5.38</v>
@@ -888,7 +890,7 @@
         <v>1389576.472209917</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>5.516</v>
@@ -929,7 +931,7 @@
         <v>1081003.654109917</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>5.48</v>
@@ -970,7 +972,7 @@
         <v>1081103.654109917</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>5.34</v>
@@ -1011,7 +1013,7 @@
         <v>1080913.923509917</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>5.479</v>
@@ -1052,7 +1054,7 @@
         <v>1066824.580809918</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>5.46</v>
@@ -1093,7 +1095,7 @@
         <v>1066824.580809918</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>5.459</v>
@@ -1134,9 +1136,11 @@
         <v>1063824.580809918</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.459</v>
+      </c>
       <c r="J19" t="n">
         <v>5.514</v>
       </c>
@@ -1173,9 +1177,11 @@
         <v>1071063.580809918</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.45</v>
+      </c>
       <c r="J20" t="n">
         <v>5.514</v>
       </c>
@@ -1212,9 +1218,11 @@
         <v>1071063.580809918</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.459</v>
+      </c>
       <c r="J21" t="n">
         <v>5.514</v>
       </c>
@@ -1251,9 +1259,11 @@
         <v>1071063.580809918</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.459</v>
+      </c>
       <c r="J22" t="n">
         <v>5.514</v>
       </c>
@@ -1290,9 +1300,11 @@
         <v>1071063.580809918</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.459</v>
+      </c>
       <c r="J23" t="n">
         <v>5.514</v>
       </c>
@@ -1329,9 +1341,11 @@
         <v>1071063.580809918</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.459</v>
+      </c>
       <c r="J24" t="n">
         <v>5.514</v>
       </c>
@@ -1368,9 +1382,11 @@
         <v>1071163.580809918</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.459</v>
+      </c>
       <c r="J25" t="n">
         <v>5.514</v>
       </c>
@@ -1407,9 +1423,11 @@
         <v>1076979.829009918</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.499</v>
+      </c>
       <c r="J26" t="n">
         <v>5.514</v>
       </c>
@@ -1446,9 +1464,11 @@
         <v>1068301.632309918</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.546</v>
+      </c>
       <c r="J27" t="n">
         <v>5.514</v>
       </c>
@@ -2460,9 +2480,11 @@
         <v>377728.9795870442</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5.5</v>
+      </c>
       <c r="J53" t="n">
         <v>5.514</v>
       </c>
@@ -3045,9 +3067,11 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.578</v>
+      </c>
       <c r="J68" t="n">
         <v>5.514</v>
       </c>
@@ -3084,9 +3108,11 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.579</v>
+      </c>
       <c r="J69" t="n">
         <v>5.514</v>
       </c>
@@ -3162,9 +3188,11 @@
         <v>1111312.123687044</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.579</v>
+      </c>
       <c r="J71" t="n">
         <v>5.514</v>
       </c>
@@ -3201,9 +3229,11 @@
         <v>1076271.768087044</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5.556</v>
+      </c>
       <c r="J72" t="n">
         <v>5.514</v>
       </c>
@@ -3240,9 +3270,11 @@
         <v>1076271.768087044</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5.53</v>
+      </c>
       <c r="J73" t="n">
         <v>5.514</v>
       </c>
@@ -3279,9 +3311,11 @@
         <v>1076271.768087044</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.53</v>
+      </c>
       <c r="J74" t="n">
         <v>5.514</v>
       </c>
@@ -3318,9 +3352,11 @@
         <v>1070641.594787044</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.53</v>
+      </c>
       <c r="J75" t="n">
         <v>5.514</v>
       </c>
@@ -3357,9 +3393,11 @@
         <v>1094385.448787044</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.498</v>
+      </c>
       <c r="J76" t="n">
         <v>5.514</v>
       </c>
@@ -3396,9 +3434,11 @@
         <v>1091385.448787044</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5.54</v>
+      </c>
       <c r="J77" t="n">
         <v>5.514</v>
       </c>
@@ -3435,9 +3475,11 @@
         <v>1348062.525887044</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.538</v>
+      </c>
       <c r="J78" t="n">
         <v>5.514</v>
       </c>
@@ -3474,9 +3516,11 @@
         <v>1348062.525887044</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.584</v>
+      </c>
       <c r="J79" t="n">
         <v>5.514</v>
       </c>
@@ -3630,9 +3674,11 @@
         <v>1116142.473087044</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5.562</v>
+      </c>
       <c r="J83" t="n">
         <v>5.514</v>
       </c>
@@ -3669,9 +3715,11 @@
         <v>1111668.560087044</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>5.594</v>
+      </c>
       <c r="J84" t="n">
         <v>5.514</v>
       </c>
@@ -4449,7 +4497,7 @@
         <v>1622126.398087044</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
@@ -4457,11 +4505,11 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.017488211824447</v>
+        <v>1</v>
       </c>
       <c r="M104" t="inlineStr"/>
     </row>
@@ -4488,11 +4536,17 @@
         <v>1642935.920087045</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4524,8 +4578,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4557,8 +4617,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4590,8 +4656,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4623,8 +4695,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4656,8 +4734,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4689,8 +4773,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4722,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4755,8 +4851,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4788,8 +4890,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4821,8 +4929,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4854,8 +4968,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4887,8 +5007,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4920,8 +5046,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4953,8 +5085,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4986,8 +5124,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5019,8 +5163,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5052,8 +5202,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5085,8 +5241,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5118,8 +5280,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5151,8 +5319,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5184,8 +5358,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5397,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5250,8 +5436,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5283,8 +5475,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5316,8 +5514,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5349,8 +5553,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5382,8 +5592,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5415,8 +5631,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5448,8 +5670,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5481,8 +5709,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5514,8 +5748,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5547,8 +5787,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5580,8 +5826,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5613,8 +5865,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5646,8 +5904,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5679,8 +5943,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5712,8 +5982,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5745,8 +6021,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5778,8 +6060,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5811,8 +6099,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5844,8 +6138,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5877,8 +6177,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5910,8 +6216,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5943,8 +6255,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5976,8 +6294,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6009,8 +6333,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6039,11 +6369,17 @@
         <v>1172222.251687045</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6075,8 +6411,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6108,8 +6450,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6141,8 +6489,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6171,11 +6525,17 @@
         <v>1151618.255487045</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6204,11 +6564,17 @@
         <v>1151618.255487045</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6237,11 +6603,17 @@
         <v>1123459.333687045</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +6642,17 @@
         <v>1123459.333687045</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6303,11 +6681,17 @@
         <v>1227408.638687045</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6336,11 +6720,17 @@
         <v>1232303.865287045</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6369,11 +6759,17 @@
         <v>1232303.865287045</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +6798,17 @@
         <v>1157441.475187045</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6435,11 +6837,17 @@
         <v>1145499.375187044</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6468,11 +6876,17 @@
         <v>1145499.375187044</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6501,11 +6915,17 @@
         <v>1246468.995187045</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6534,11 +6954,17 @@
         <v>1180166.623087045</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6567,11 +6993,17 @@
         <v>1144531.733087045</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6603,8 +7035,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6636,8 +7074,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6669,8 +7113,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6702,8 +7152,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6735,8 +7191,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6768,8 +7230,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6801,8 +7269,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6831,11 +7305,17 @@
         <v>1138168.414587045</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6867,8 +7347,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6900,8 +7386,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6933,8 +7425,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6966,8 +7464,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6999,8 +7503,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7032,8 +7542,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7065,8 +7581,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7098,8 +7620,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7131,8 +7659,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7164,8 +7698,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7197,8 +7737,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7230,8 +7776,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7263,8 +7815,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7296,8 +7854,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7329,8 +7893,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7362,8 +7932,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7395,8 +7971,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7428,8 +8010,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7461,8 +8049,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7494,8 +8088,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +8127,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7560,8 +8166,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7593,8 +8205,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7626,8 +8244,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7659,8 +8283,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7692,8 +8322,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7725,8 +8361,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7758,8 +8400,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7791,8 +8439,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7824,8 +8478,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7857,8 +8517,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7890,8 +8556,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7920,11 +8592,17 @@
         <v>1006753.958894214</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7953,11 +8631,17 @@
         <v>1114768.522394214</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +8670,17 @@
         <v>1020575.557394214</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8019,11 +8709,17 @@
         <v>1020664.557394214</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8052,11 +8748,17 @@
         <v>1010374.557394214</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8085,11 +8787,17 @@
         <v>1021374.557394214</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8118,11 +8826,17 @@
         <v>958640.2726942139</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8151,11 +8865,17 @@
         <v>958526.3570942139</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8184,11 +8904,17 @@
         <v>933735.4550942139</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8220,8 +8946,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8253,8 +8985,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8283,11 +9021,17 @@
         <v>920726.9550942139</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8316,11 +9060,17 @@
         <v>920816.9550942139</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8349,11 +9099,17 @@
         <v>812126.227494214</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8382,11 +9138,17 @@
         <v>812126.227494214</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8415,11 +9177,17 @@
         <v>836731.227494214</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8448,11 +9216,17 @@
         <v>766083.727494214</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8481,11 +9255,17 @@
         <v>766083.727494214</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8514,11 +9294,17 @@
         <v>766083.727494214</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8547,11 +9333,17 @@
         <v>766083.727494214</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8580,11 +9372,17 @@
         <v>766083.727494214</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8613,11 +9411,17 @@
         <v>766083.727494214</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8646,11 +9450,17 @@
         <v>916890.088894214</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8679,11 +9489,17 @@
         <v>916980.088894214</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8712,11 +9528,17 @@
         <v>914224.228894214</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8745,11 +9567,17 @@
         <v>914313.228894214</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8781,8 +9609,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8814,8 +9648,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8847,8 +9687,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8880,8 +9726,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8913,8 +9765,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8946,8 +9804,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8979,8 +9843,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9012,8 +9882,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9045,8 +9921,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9078,8 +9960,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9111,8 +9999,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9144,8 +10038,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9177,8 +10077,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9210,8 +10116,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9243,8 +10155,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9276,8 +10194,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9309,8 +10233,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9342,8 +10272,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9375,8 +10311,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9408,8 +10350,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9441,8 +10389,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9474,8 +10428,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9507,8 +10467,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9540,8 +10506,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9573,8 +10545,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9606,8 +10584,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9639,8 +10623,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9672,8 +10662,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9705,8 +10701,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9738,8 +10740,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9771,8 +10779,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9804,8 +10818,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9837,8 +10857,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9870,8 +10896,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9903,8 +10935,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9936,8 +10974,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9966,11 +11010,19 @@
         <v>446038.8300942139</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>5.619</v>
+      </c>
+      <c r="J271" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9999,11 +11051,19 @@
         <v>315793.3085942139</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J272" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10032,11 +11092,19 @@
         <v>316357.2582942139</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>5.595</v>
+      </c>
+      <c r="J273" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10065,11 +11133,19 @@
         <v>527638.1916942139</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>5.628</v>
+      </c>
+      <c r="J274" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10098,11 +11174,19 @@
         <v>527638.1916942139</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>5.665</v>
+      </c>
+      <c r="J275" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10131,11 +11215,19 @@
         <v>593689.9821942139</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>5.665</v>
+      </c>
+      <c r="J276" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10164,11 +11256,19 @@
         <v>593689.9821942139</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J277" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10197,11 +11297,19 @@
         <v>615375.3437942138</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J278" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10230,11 +11338,19 @@
         <v>615375.3437942138</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J279" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10263,11 +11379,19 @@
         <v>678375.3437942138</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J280" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10296,11 +11420,19 @@
         <v>678375.3437942138</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>5.691</v>
+      </c>
+      <c r="J281" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10329,11 +11461,19 @@
         <v>642795.3437942138</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>5.691</v>
+      </c>
+      <c r="J282" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10362,11 +11502,19 @@
         <v>647795.3437942138</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>5.677</v>
+      </c>
+      <c r="J283" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10395,11 +11543,19 @@
         <v>647883.3437942138</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>5.735</v>
+      </c>
+      <c r="J284" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10431,8 +11587,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10461,11 +11623,19 @@
         <v>608489.6237942139</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>5.682</v>
+      </c>
+      <c r="J286" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10497,8 +11667,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10530,8 +11706,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10563,8 +11745,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10593,11 +11781,19 @@
         <v>612401.6237942139</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J290" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10626,11 +11822,19 @@
         <v>612401.6237942139</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J291" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10662,8 +11866,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10695,8 +11905,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10728,8 +11944,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10761,8 +11983,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10794,8 +12022,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10827,8 +12061,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10860,8 +12100,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10893,8 +12139,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10926,8 +12178,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10959,8 +12217,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10992,8 +12256,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11025,8 +12295,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11058,8 +12334,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11091,8 +12373,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11124,8 +12412,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11157,8 +12451,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11190,8 +12490,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11223,8 +12529,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11256,8 +12568,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11289,8 +12607,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11322,8 +12646,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11355,8 +12685,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11388,8 +12724,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11421,8 +12763,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11454,8 +12802,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11487,8 +12841,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11520,8 +12880,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11553,8 +12919,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11586,8 +12958,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11619,8 +12997,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11652,8 +13036,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11685,8 +13075,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11715,11 +13111,17 @@
         <v>3848032.506994214</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11751,8 +13153,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11781,11 +13189,17 @@
         <v>3848032.506994214</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11814,11 +13228,17 @@
         <v>3848032.506994214</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11850,8 +13270,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11883,8 +13309,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11916,8 +13348,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11949,8 +13387,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11982,8 +13426,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12015,8 +13465,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12048,8 +13504,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12081,8 +13543,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12114,8 +13582,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12144,11 +13618,17 @@
         <v>3880349.828502322</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12180,8 +13660,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12210,11 +13696,17 @@
         <v>3786623.691402322</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12243,11 +13735,17 @@
         <v>3786623.691402322</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12279,8 +13777,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12309,11 +13813,17 @@
         <v>3898659.275302322</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12342,15 +13852,23 @@
         <v>3940897.936702322</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+        <v>1.065729053318825</v>
+      </c>
+      <c r="M343" t="n">
+        <v>1.003811944091487</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12408,7 +13926,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12441,7 +13959,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12474,7 +13992,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12507,7 +14025,7 @@
         <v>3331107.043602322</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12540,7 +14058,7 @@
         <v>3278005.356602322</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12573,7 +14091,7 @@
         <v>3278005.356602322</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12606,7 +14124,7 @@
         <v>3278089.844702323</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12969,7 +14487,7 @@
         <v>2612957.649002322</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13035,7 +14553,7 @@
         <v>2552957.649002322</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13068,7 +14586,7 @@
         <v>2553046.649002322</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13101,7 +14619,7 @@
         <v>2537155.908202323</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13134,7 +14652,7 @@
         <v>2567155.908202323</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13167,7 +14685,7 @@
         <v>2578663.500602323</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13200,7 +14718,7 @@
         <v>2674754.768002322</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13233,7 +14751,7 @@
         <v>2518053.781502322</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13266,7 +14784,7 @@
         <v>2513459.207502322</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13299,7 +14817,7 @@
         <v>2544884.057302322</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13332,7 +14850,7 @@
         <v>2481431.127402322</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13596,7 +15114,7 @@
         <v>1989142.624702322</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13673,6 +15191,6 @@
       <c r="M383" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-16 BackTest ZIL.xlsx
@@ -451,7 +451,7 @@
         <v>1236145.9016</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>1608558.855</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.514</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1599617.105</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>1593617.105</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>1727894.336822873</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.421</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>1712894.336822873</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.596</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,17 @@
         <v>1712994.336822873</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +724,17 @@
         <v>1712708.980322873</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,17 @@
         <v>1707379.790322874</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +802,17 @@
         <v>1698049.290322874</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +841,19 @@
         <v>1698149.290322874</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +882,17 @@
         <v>1389576.472209917</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +921,17 @@
         <v>1081003.654109917</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +999,17 @@
         <v>1080913.923509917</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1038,17 @@
         <v>1066824.580809918</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1353,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1392,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1431,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1509,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1548,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1587,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1626,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1704,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1743,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1821,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1860,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1899,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1935,17 @@
         <v>231066.1583099177</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1974,17 @@
         <v>592735.8240870442</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2013,17 @@
         <v>397331.9462870442</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2055,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2094,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2133,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2172,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2211,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2250,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2289,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2328,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2367,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2406,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2445,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2484,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2523,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2562,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2601,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2640,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2679,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2718,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2757,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2793,17 @@
         <v>656523.4610870441</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2832,17 @@
         <v>646510.4927870441</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2871,17 @@
         <v>623982.4927870441</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2910,17 @@
         <v>600172.9697870441</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2949,17 @@
         <v>600172.9697870441</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2988,17 @@
         <v>769719.0479870441</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3027,17 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3066,17 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3105,17 @@
         <v>1113230.075887044</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3144,17 @@
         <v>1111312.123687044</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3183,17 @@
         <v>1076271.768087044</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3222,17 @@
         <v>1076271.768087044</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3264,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3303,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3342,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3381,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3420,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3456,17 @@
         <v>1348062.525887044</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3495,17 @@
         <v>1348062.525887044</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3534,17 @@
         <v>1099001.541087044</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3573,17 @@
         <v>1099001.541087044</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3612,17 @@
         <v>1116142.473087044</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3729,17 @@
         <v>1393514.343087044</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3768,17 @@
         <v>1329275.641987044</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3807,17 @@
         <v>1331145.272787044</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3849,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3885,17 @@
         <v>1028302.134987044</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3927,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3963,17 @@
         <v>1113511.364787044</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +4002,17 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +4041,17 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +4080,17 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +4119,17 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +4158,17 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4197,17 @@
         <v>1195718.331487044</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4236,17 @@
         <v>1149899.460487044</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4275,17 @@
         <v>1173708.983487044</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4314,17 @@
         <v>1172722.032487045</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4353,17 @@
         <v>1658002.490987045</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4392,17 @@
         <v>1655002.490987045</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4431,17 @@
         <v>1622126.398087044</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4470,17 @@
         <v>1642935.920087045</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4509,17 @@
         <v>1642935.920087045</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4548,17 @@
         <v>1718542.202787045</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4587,17 @@
         <v>1674963.421787045</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4626,17 @@
         <v>2022953.609587045</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4665,17 @@
         <v>2022953.609587045</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4704,17 @@
         <v>1847299.714687045</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4743,17 @@
         <v>1404115.349887045</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4782,17 @@
         <v>1450244.040887045</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4821,17 @@
         <v>1421663.213887045</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4860,17 @@
         <v>1462208.077587045</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4899,17 @@
         <v>1350433.132987045</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4938,17 @@
         <v>768046.9980870448</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4977,17 @@
         <v>768146.9980870448</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +5016,17 @@
         <v>309001.8508870448</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +5055,17 @@
         <v>116882.3112870448</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +5094,17 @@
         <v>116882.3112870448</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +5133,17 @@
         <v>114420.8318870448</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +5172,17 @@
         <v>135510.8318870448</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +5211,17 @@
         <v>138510.8318870448</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +5250,17 @@
         <v>678236.2708870448</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +5289,17 @@
         <v>709526.2708870448</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +5328,17 @@
         <v>419664.2655870448</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +5367,17 @@
         <v>575221.4726870449</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5409,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +5445,17 @@
         <v>625411.4726870449</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +5484,17 @@
         <v>625411.4726870449</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +5523,17 @@
         <v>658467.8836870448</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5562,17 @@
         <v>653975.3748870449</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5601,17 @@
         <v>651068.0984870449</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5640,17 @@
         <v>665989.4327870449</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5679,17 @@
         <v>716256.859087045</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5718,17 @@
         <v>711188.859087045</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5757,17 @@
         <v>687998.359087045</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5796,17 @@
         <v>693201.4590870449</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5835,17 @@
         <v>711215.3800870449</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5874,17 @@
         <v>708465.7596870449</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5913,17 @@
         <v>789192.8123870449</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5952,17 @@
         <v>957797.019787045</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5991,17 @@
         <v>957797.019787045</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +6030,17 @@
         <v>960620.457087045</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +6069,17 @@
         <v>1016497.772387045</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +6108,17 @@
         <v>1094921.302287045</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +6150,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +6189,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6228,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6267,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6306,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6345,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6384,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6423,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6462,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6501,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6540,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6579,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6618,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6657,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6696,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6735,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6774,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6813,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6852,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6891,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6930,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6969,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +7008,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +7047,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +7086,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +7125,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +7164,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +7203,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +7242,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +7281,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +7320,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +7359,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +7398,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7437,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7476,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7515,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7554,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7593,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7632,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7671,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7710,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7749,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7788,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7827,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7866,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7905,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7944,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7983,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +8022,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +8061,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +8100,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +8139,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +8178,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +8217,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +8256,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +8295,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +8334,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +8373,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +8412,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +8451,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +8490,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +8529,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +8568,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +8607,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +8646,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +8685,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8724,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8763,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8802,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8841,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8880,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8919,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8958,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8997,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +9036,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +9075,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +9114,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +9153,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +9192,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +9231,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +9270,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +9309,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +9348,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +9387,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +9426,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,15 +9462,17 @@
         <v>914224.228894214</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>5.629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>5.629</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
+        <v>5.514</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,17 +9501,15 @@
         <v>914313.228894214</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>5.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -8152,17 +9540,15 @@
         <v>914174.3548942141</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>5.657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L235" t="n">
@@ -8193,17 +9579,15 @@
         <v>914687.3548942141</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>5.595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L236" t="n">
@@ -8234,13 +9618,11 @@
         <v>748925.0930942141</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>5.653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8279,7 +9661,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8314,13 +9696,11 @@
         <v>773014.0930942141</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>5.619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8355,13 +9735,11 @@
         <v>773014.0930942141</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>5.619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8400,7 +9778,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8439,7 +9817,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8478,7 +9856,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8517,7 +9895,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8556,7 +9934,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8595,7 +9973,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8634,7 +10012,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8673,7 +10051,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8712,7 +10090,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8751,7 +10129,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8790,7 +10168,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8829,7 +10207,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8868,7 +10246,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8907,7 +10285,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8946,7 +10324,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -8985,7 +10363,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9020,19 +10398,19 @@
         <v>962187.249394214</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>5.629</v>
+        <v>5.514</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.001040149227217</v>
+        <v>1</v>
       </c>
       <c r="M257" t="inlineStr"/>
     </row>
@@ -9059,11 +10437,17 @@
         <v>962276.249394214</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9092,11 +10476,17 @@
         <v>958081.617894214</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9125,11 +10515,17 @@
         <v>953580.517494214</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9158,11 +10554,17 @@
         <v>957219.647894214</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9191,11 +10593,17 @@
         <v>841219.647894214</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9224,11 +10632,17 @@
         <v>841219.647894214</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9257,11 +10671,17 @@
         <v>764590.633994214</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9290,11 +10710,17 @@
         <v>767430.026494214</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9323,11 +10749,17 @@
         <v>767520.026494214</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9356,11 +10788,17 @@
         <v>767260.034094214</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9389,11 +10827,17 @@
         <v>767260.034094214</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +10866,17 @@
         <v>640853.649494214</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9458,8 +10908,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9491,8 +10947,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9524,8 +10986,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9554,11 +11022,17 @@
         <v>316357.2582942139</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9587,11 +11061,17 @@
         <v>527638.1916942139</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9620,11 +11100,17 @@
         <v>527638.1916942139</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9653,11 +11139,17 @@
         <v>593689.9821942139</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9686,11 +11178,17 @@
         <v>593689.9821942139</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9719,11 +11217,17 @@
         <v>615375.3437942138</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9752,11 +11256,17 @@
         <v>615375.3437942138</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9788,8 +11298,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9821,8 +11337,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9854,8 +11376,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9887,8 +11415,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9920,8 +11454,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9953,8 +11493,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9986,8 +11532,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10019,8 +11571,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10052,8 +11610,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10085,8 +11649,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10118,8 +11688,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10151,8 +11727,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10184,8 +11766,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10217,8 +11805,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10250,8 +11844,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10283,8 +11883,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10316,8 +11922,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10349,8 +11961,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10382,8 +12000,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10415,8 +12039,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10448,8 +12078,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10481,8 +12117,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10514,8 +12156,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10547,8 +12195,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10580,8 +12234,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10613,8 +12273,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10646,8 +12312,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10679,8 +12351,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10712,8 +12390,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10745,8 +12429,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10778,8 +12468,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10811,8 +12507,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10844,8 +12546,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10877,8 +12585,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10910,8 +12624,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10943,8 +12663,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10976,8 +12702,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11009,8 +12741,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11042,8 +12780,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11075,8 +12819,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11108,8 +12858,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11141,8 +12897,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11174,8 +12936,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11207,8 +12975,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11240,8 +13014,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11273,8 +13053,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11306,8 +13092,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11339,8 +13131,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11372,8 +13170,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11405,8 +13209,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11438,8 +13248,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11471,8 +13287,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11501,15 +13323,23 @@
         <v>4054268.614394214</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+        <v>1.068630758070366</v>
+      </c>
+      <c r="M332" t="n">
+        <v>1.003811944091487</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11534,7 +13364,7 @@
         <v>3954180.720394214</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11567,7 +13397,7 @@
         <v>3954788.828502322</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11600,7 +13430,7 @@
         <v>3880349.828502322</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11633,7 +13463,7 @@
         <v>3880349.828502322</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11666,7 +13496,7 @@
         <v>3880349.828502322</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11699,7 +13529,7 @@
         <v>3880439.828502322</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11732,7 +13562,7 @@
         <v>3786623.691402322</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11765,7 +13595,7 @@
         <v>3786623.691402322</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11798,7 +13628,7 @@
         <v>3786623.691402322</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11831,7 +13661,7 @@
         <v>3898659.275302322</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11864,7 +13694,7 @@
         <v>3940897.936702322</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11897,7 +13727,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11930,7 +13760,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11963,7 +13793,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11996,7 +13826,7 @@
         <v>3331022.043602322</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12029,7 +13859,7 @@
         <v>3331107.043602322</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12062,7 +13892,7 @@
         <v>3278005.356602322</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12095,7 +13925,7 @@
         <v>3278005.356602322</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12128,7 +13958,7 @@
         <v>3278089.844702323</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12161,7 +13991,7 @@
         <v>2951975.556802323</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12194,7 +14024,7 @@
         <v>2362712.324702322</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12227,7 +14057,7 @@
         <v>2362800.324702322</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
